--- a/elevator_math.xlsx
+++ b/elevator_math.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>all-floors</t>
   </si>
@@ -179,13 +179,7 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>Acceleration</t>
-  </si>
-  <si>
     <t>Velocity</t>
-  </si>
-  <si>
-    <t>Distance = 4 meters</t>
   </si>
   <si>
     <t>0:6.5</t>
@@ -252,32 +246,74 @@
     <t>Initial speed = 0 m/s</t>
   </si>
   <si>
-    <t>Final speed = 0.8 m/s</t>
-  </si>
-  <si>
-    <t>Time = 5 seconds</t>
-  </si>
-  <si>
-    <t>A = 1.6 m/s^2</t>
-  </si>
-  <si>
     <t>Velocity = 0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Speed = </t>
-  </si>
-  <si>
-    <t>How long to reach =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per floor timing = </t>
+    <t>Distance = 4 meters/floor</t>
+  </si>
+  <si>
+    <t>Doors opening (seconds): (8, 9.9, 11, 7.8)
+    average = 9.2 seconds</t>
+  </si>
+  <si>
+    <t>Moving from floors 1 -&gt; 7 (seconds): (17.6, 19.6, 19.6, 22.5)
+    average = 19.8 seconds</t>
+  </si>
+  <si>
+    <t>Per floor (seconds): (6.5, 8.5, 7.7, 12.7, 8.4, 13.2)
+    average = 9.5 seconds</t>
+  </si>
+  <si>
+    <t>Iteration 1 Time</t>
+  </si>
+  <si>
+    <t>A = 1.2 m/s^2</t>
+  </si>
+  <si>
+    <t>Final speed = 23.76 m/s</t>
+  </si>
+  <si>
+    <t>Time = 19.8 seconds</t>
+  </si>
+  <si>
+    <t>Acceleration (Floors 1 -&gt; 7)</t>
+  </si>
+  <si>
+    <t>Max Speed = 24 m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long to reach = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 seconds</t>
+  </si>
+  <si>
+    <t>Per floor = 4.8 secs</t>
+  </si>
+  <si>
+    <t>Distance = 4 * 7 = 28 m</t>
+  </si>
+  <si>
+    <t>A = 0.14 m/s^2</t>
+  </si>
+  <si>
+    <t>Acceleration (Per floor)</t>
+  </si>
+  <si>
+    <t>Distance = 4 m</t>
+  </si>
+  <si>
+    <t>Time = 9.5 seconds</t>
+  </si>
+  <si>
+    <t>A = 0.08 m/s^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -302,6 +338,11 @@
     </font>
     <font>
       <sz val="9.9"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -445,7 +486,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -503,6 +544,36 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,140 +583,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1888,10 +1836,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1904,21 +1852,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="A1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1931,11 +1879,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="10"/>
     </row>
@@ -1950,14 +1898,14 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="G3" s="20"/>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1965,19 +1913,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1991,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -2008,10 +1956,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -2025,10 +1973,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -2042,11 +1993,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
@@ -2059,7 +2011,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -2067,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -2087,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1">
@@ -2101,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1">
@@ -2115,7 +2067,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.95" customHeight="1">
@@ -2129,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1">
@@ -2143,7 +2095,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.95" customHeight="1">
@@ -2151,145 +2103,221 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1">
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A20" s="22">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A21" s="25">
+        <v>2</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A22" s="25">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A23" s="25">
+        <v>4</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A24" s="25">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A25" s="25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A26" s="25">
+        <v>7</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A27" s="25">
+        <v>8</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A20" s="25">
-        <v>1</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A21" s="28">
-        <v>2</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A22" s="28">
-        <v>3</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A23" s="28">
-        <v>4</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A24" s="28">
-        <v>5</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A25" s="28">
-        <v>6</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A26" s="28">
-        <v>7</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A27" s="28">
-        <v>8</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1">
+    <row r="29" spans="1:13" ht="19.95" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2319,11 +2347,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2527,16 +2555,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1">
       <c r="A3" s="15" t="s">

--- a/elevator_math.xlsx
+++ b/elevator_math.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARRISON\Documents\3303\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1491EAD2-F0C6-4F9C-AEA2-3BB044DF5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Floors" sheetId="1" r:id="rId1"/>
     <sheet name="Per Floor" sheetId="2" r:id="rId2"/>
     <sheet name="Device" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -312,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -574,6 +571,12 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,12 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +683,13 @@
     <xdr:ext cx="65" cy="162224"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1832,41 +1835,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1995,10 +1998,10 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
@@ -2042,7 +2045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
+    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1">
+    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
+    <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1">
+    <row r="15" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1">
+    <row r="16" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
@@ -2109,34 +2112,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="60.75" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>1</v>
       </c>
@@ -2146,11 +2149,11 @@
       <c r="C19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="20" t="s">
         <v>67</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1">
+    <row r="20" spans="1:13" ht="60.75" customHeight="1">
       <c r="A20" s="22">
         <v>1</v>
       </c>
@@ -2172,11 +2175,11 @@
       <c r="C20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="20" t="s">
         <v>82</v>
       </c>
@@ -2188,7 +2191,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1">
+    <row r="21" spans="1:13" ht="58.5" customHeight="1">
       <c r="A21" s="25">
         <v>2</v>
       </c>
@@ -2198,11 +2201,11 @@
       <c r="C21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="20" t="s">
         <v>76</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="19.95" customHeight="1">
+    <row r="22" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="25">
         <v>3</v>
       </c>
@@ -2235,7 +2238,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" ht="19.95" customHeight="1">
+    <row r="23" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="25">
         <v>4</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.95" customHeight="1">
+    <row r="24" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="25">
         <v>5</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.95" customHeight="1">
+    <row r="25" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="25">
         <v>6</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.95" customHeight="1">
+    <row r="26" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="25">
         <v>7</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.95" customHeight="1">
+    <row r="27" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="25">
         <v>8</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.95" customHeight="1">
+    <row r="28" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="28" t="s">
         <v>18</v>
       </c>
@@ -2301,23 +2304,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.95" customHeight="1">
+    <row r="29" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:M18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2329,29 +2332,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="10"/>
+    <col min="2" max="2" width="6.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.28515625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2535,11 +2538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2548,23 +2551,23 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.33203125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="16.33203125" style="14"/>
+    <col min="1" max="3" width="16.28515625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="16.28515625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1">
       <c r="A3" s="15" t="s">
